--- a/Data_analysis/직장인을_위한_실무_엑셀/Chapter01/Section03/조건부서식적용된셀찾기.xlsx
+++ b/Data_analysis/직장인을_위한_실무_엑셀/Chapter01/Section03/조건부서식적용된셀찾기.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_출판사\길벗\직장인엑셀_2018\부록CD\Chapter01\Section03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/직장인을_위한_실무_엑셀/Chapter01/Section03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453AAF79-1E46-46DA-ADF6-0C3D1F298383}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2D7131-8F9F-1B42-875A-590303B9C1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6852" xr2:uid="{AF966222-5AB6-4C42-B5FF-9E98B2A083BD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{AF966222-5AB6-4C42-B5FF-9E98B2A083BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>컴가이드 온라인 강좌 매출 실적</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -100,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -204,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -224,7 +224,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -235,7 +235,7 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -243,6 +243,25 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -570,16 +589,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9587DC53-6757-4E87-BC62-102A773835C6}">
   <dimension ref="B1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -799,10 +818,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4:C20">
-    <cfRule type="aboveAverage" dxfId="1" priority="3"/>
+    <cfRule type="aboveAverage" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D20">
-    <cfRule type="aboveAverage" dxfId="0" priority="2" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="2" priority="2" aboveAverage="0"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
